--- a/team_specific_matrix/Queens (NY)_A.xlsx
+++ b/team_specific_matrix/Queens (NY)_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,13 +793,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.3157894736842105</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1283,16 +1283,16 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1401,16 +1401,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.1568627450980392</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.07843137254901961</v>
       </c>
     </row>
   </sheetData>
